--- a/resources/YM2151_operators.xlsx
+++ b/resources/YM2151_operators.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiki1\Documents\GitHub\IKA2151\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D7095C-4ADF-4C55-9246-5D244AE98540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432A8142-165F-4B60-B882-E970B525169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D3CBBDE4-D0F0-4945-93E3-355BF0C6E8D1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="26">
   <si>
     <t>STATE 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,14 @@
   </si>
   <si>
     <t>determine car2 input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current(mod1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current(mod2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +494,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -532,10 +540,10 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>

--- a/resources/YM2151_operators.xlsx
+++ b/resources/YM2151_operators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiki1\Documents\GitHub\IKA2151\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432A8142-165F-4B60-B882-E970B525169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D61FE60-70FB-4A88-A131-F7499D7323A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D3CBBDE4-D0F0-4945-93E3-355BF0C6E8D1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="27">
   <si>
     <t>STATE 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,47 +80,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>current</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mod1_zz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zero</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mod1_z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>car1_z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>determine mod2 input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calc mod1 feedback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>determine car1 input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>determine car2 input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current(mod1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current(mod2)</t>
+    <t>calc M1 feedback</t>
+  </si>
+  <si>
+    <t>M1_zz</t>
+  </si>
+  <si>
+    <t>M1_z</t>
+  </si>
+  <si>
+    <t>determine M2 input</t>
+  </si>
+  <si>
+    <t>determine C2 input</t>
+  </si>
+  <si>
+    <t>determine C1 input</t>
+  </si>
+  <si>
+    <t>M1(current)</t>
+  </si>
+  <si>
+    <t>M2(current)</t>
+  </si>
+  <si>
+    <t>M1_z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2(current)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1_z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +490,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -520,16 +516,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -540,16 +536,16 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -558,16 +554,16 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -584,16 +580,16 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -602,16 +598,16 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -628,16 +624,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -646,16 +642,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -672,16 +668,16 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -690,16 +686,16 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -716,16 +712,16 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -734,97 +730,151 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
       <c r="E18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
       <c r="E19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
       <c r="E21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
       <c r="E22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
       <c r="E24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
       <c r="E25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>14</v>

--- a/resources/YM2151_operators.xlsx
+++ b/resources/YM2151_operators.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiki1\Documents\GitHub\IKA2151\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiki1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D61FE60-70FB-4A88-A131-F7499D7323A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10A8D01-043A-46F6-9501-5D65CDB2D6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D3CBBDE4-D0F0-4945-93E3-355BF0C6E8D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{D3CBBDE4-D0F0-4945-93E3-355BF0C6E8D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="32">
   <si>
     <t>STATE 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,24 +84,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>calc M1 feedback</t>
-  </si>
-  <si>
     <t>M1_zz</t>
   </si>
   <si>
     <t>M1_z</t>
   </si>
   <si>
-    <t>determine M2 input</t>
-  </si>
-  <si>
-    <t>determine C2 input</t>
-  </si>
-  <si>
-    <t>determine C1 input</t>
-  </si>
-  <si>
     <t>M1(current)</t>
   </si>
   <si>
@@ -117,6 +105,41 @@
   </si>
   <si>
     <t>C1_z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculate C1 input(ST2)</t>
+  </si>
+  <si>
+    <t>store nothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculate C2 input(ST3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store C1 values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store M1 values(z / zz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculate M1 fdbk(ST0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPSUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGISTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>determine M2 input(ST1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,20 +510,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97E4AF8-CCAE-4358-93BD-C5B9D4205780}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="6" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="6" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,382 +537,434 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
